--- a/PRODUTOS/Mercearia Salgada/Mercearia Salgada - Tapioca.xlsx
+++ b/PRODUTOS/Mercearia Salgada/Mercearia Salgada - Tapioca.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Goma Para Tapioca Da Terrinha 500g</t>
+          <t>Goma Para Tapioca Delicia Do Nordeste 500g</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/16dc23d4-ac0b-4599-b810-75893886176e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/049161b7-915c-49eb-aaa7-3c3826a3a198.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7898952256070</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Goma Para Tapioca Da Terrinha 1kg</t>
+          <t>Goma Para Tapioca Delicia Do Nordeste 1kg</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 11,98</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d9858cf7-a35b-40ec-af6a-b89f2eb6f415.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d9bd040c-c8c1-4dc6-9514-a5d0634f65c0.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7898952256070</t>
         </is>
       </c>
     </row>
@@ -515,7 +530,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Goma Para Tapioca Delicia Do Nordeste 500g</t>
+          <t>Massa De Tapioca Liz 500g</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -525,7 +540,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/049161b7-915c-49eb-aaa7-3c3826a3a198.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b0c16571-e2fe-40e1-bd95-838c8fc84a9d.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7896174205708</t>
         </is>
       </c>
     </row>
@@ -542,98 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Goma Para Tapioca Delicia Do Nordeste 1kg</t>
+          <t>Tapioca Da Terrinha Na Medida 490g</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 11,98</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d9bd040c-c8c1-4dc6-9514-a5d0634f65c0.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Tapioca</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Massa De Tapioca Liz 500g</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b0c16571-e2fe-40e1-bd95-838c8fc84a9d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Tapioca</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Tapioca Da Terrinha Na Medida 490g</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>R$ 13,99</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9b619354-c22f-4e6f-8675-7bc505d687c3.jpg</t>
         </is>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Tapioca</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Tapioca Da Terrinha 400g Granulada</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d546a786-8661-40e5-8012-a5fdb5782f02.jpg</t>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7898693230780</t>
         </is>
       </c>
     </row>
